--- a/汽柴煤油2.0/eta/中石化航空煤油企业结算价Trend-F0.2_合并数据.xlsx
+++ b/汽柴煤油2.0/eta/中石化航空煤油企业结算价Trend-F0.2_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>4788.07</v>
+        <v>4783.16</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>4861.57</v>
+        <v>4860.45</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>4940.64</v>
+        <v>4939.63</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>5021.57</v>
+        <v>5020.68</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>5102.47</v>
+        <v>5101.72</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>5181.36</v>
+        <v>5180.74</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>5261.73</v>
+        <v>5261.27</v>
       </c>
     </row>
     <row r="9">
